--- a/ZhihangLiu2020/evidence.xlsx
+++ b/ZhihangLiu2020/evidence.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/youwei/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48BFB6C7-13C7-3949-BA6D-5280A2D661C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D22DCDAC-12C8-AD4B-9409-F1A6F393358D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="22500" windowHeight="11320" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2780" yWindow="460" windowWidth="24680" windowHeight="10160" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="42">
   <si>
     <t>TeamName</t>
   </si>
@@ -73,33 +73,15 @@
     <t>ClassID</t>
   </si>
   <si>
-    <t>tx hash on irisnet</t>
-  </si>
-  <si>
-    <t>class id you issued</t>
-  </si>
-  <si>
     <t>NFTID</t>
   </si>
   <si>
-    <t>nft id you minted</t>
-  </si>
-  <si>
     <t>ChainID</t>
   </si>
   <si>
-    <t>ibc class on dest chain</t>
-  </si>
-  <si>
     <t>nft id</t>
   </si>
   <si>
-    <t>dest chain id</t>
-  </si>
-  <si>
-    <t>tx hash on dest chain</t>
-  </si>
-  <si>
     <t>ibc class on chain</t>
   </si>
   <si>
@@ -143,6 +125,69 @@
   </si>
   <si>
     <t>uptick1d2xx78x53c9upzu30hp5vhnza53m2alxqmgqu3</t>
+  </si>
+  <si>
+    <t>6849144C93825B2B61CF7B9AF7B86E9DD7FFD96D7BCEF69AE9636966D9699592</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ibc/4350B5C145B1221F2D2CAFE572EC3F136D9F99C65D3137AD56A110F1C074EA28</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>beauty002</t>
+  </si>
+  <si>
+    <t>beauty002</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>uptick_7000-2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>5B7426CD3CAE0E8B9EA5C6446C6270810129A1E5ECD37A18A78556A0A91D0AF8</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>beauty001</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>stars1n6hx0mcjr5c55qwk9rxhqv4r87hz947w0dlgefhj64kekqf5hfssslm5th</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>elgafar-1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>132DFD90E34A22D82C2847867E022E562056DE031C1899928C21AC361582B1C8</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>FDFE6F08871366BACBA0F490DD8128587175327A8B30FFA891FF2E3887B767E3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TxHash</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>8D05C0C1E03514316A627140143B349A998E3DE266E845BFFE217E7C82DC4047</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>zhihangliu2020</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DE86CDDA30D6844CC14FAA55A76A995D71AC85A4A8BC638FAB9F0F7BD67AC718</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CC1BA822ACDCC73A4D0D5C0962D10E71DF60D8E1E01A2A4055A7B71849EF33B4</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -160,12 +205,13 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
@@ -564,7 +610,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
@@ -596,7 +642,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>5</v>
@@ -607,25 +653,25 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>30</v>
-      </c>
       <c r="G2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -651,15 +697,15 @@
         <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="14">
+      <c r="A2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="14">
-      <c r="A2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -685,15 +731,15 @@
         <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="14">
+      <c r="A2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="14">
-      <c r="A2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -719,15 +765,15 @@
         <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="14">
+      <c r="A2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="14">
-      <c r="A2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -753,15 +799,15 @@
         <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="14">
+      <c r="A2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="14">
-      <c r="A2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -787,25 +833,25 @@
         <v>7</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="14">
+      <c r="A2" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="14">
-      <c r="A2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>20</v>
+      <c r="B2" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="14">
       <c r="A3" s="3" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14">
       <c r="A4" s="3" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -831,25 +877,25 @@
         <v>7</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="14">
+      <c r="A2" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="14">
-      <c r="A2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>20</v>
+      <c r="B2" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="14">
       <c r="A3" s="3" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14">
       <c r="A4" s="3" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -875,25 +921,25 @@
         <v>7</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="14">
+      <c r="A2" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="14">
-      <c r="A2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>20</v>
+      <c r="B2" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="14">
       <c r="A3" s="3" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14">
       <c r="A4" s="3" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -919,25 +965,25 @@
         <v>7</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="14">
+      <c r="A2" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="14">
-      <c r="A2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>20</v>
+      <c r="B2" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="14">
       <c r="A3" s="3" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14">
       <c r="A4" s="3" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -963,25 +1009,25 @@
         <v>7</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="14">
+      <c r="A2" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="14">
-      <c r="A2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>20</v>
+      <c r="B2" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="14">
       <c r="A3" s="3" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14">
       <c r="A4" s="3" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1007,25 +1053,25 @@
         <v>7</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="14">
+      <c r="A2" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="14">
-      <c r="A2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>20</v>
+      <c r="B2" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="14">
       <c r="A3" s="3" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14">
       <c r="A4" s="3" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1039,7 +1085,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13"/>
   <cols>
@@ -1056,10 +1104,10 @@
     </row>
     <row r="2" spans="1:2" ht="14">
       <c r="A2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>10</v>
+        <v>41</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1085,25 +1133,25 @@
         <v>7</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="14">
+      <c r="A2" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="14">
-      <c r="A2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>20</v>
+      <c r="B2" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="14">
       <c r="A3" s="3" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14">
       <c r="A4" s="3" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1129,25 +1177,25 @@
         <v>7</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="14">
+      <c r="A2" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="14">
-      <c r="A2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>20</v>
+      <c r="B2" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="14">
       <c r="A3" s="3" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14">
       <c r="A4" s="3" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1172,12 +1220,12 @@
     </row>
     <row r="2" spans="1:1" ht="16.5" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="14">
       <c r="A3" s="3" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1208,12 +1256,12 @@
     </row>
     <row r="2" spans="1:1" ht="14">
       <c r="A2" s="2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="14">
       <c r="A3" s="3" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1244,12 +1292,12 @@
     </row>
     <row r="2" spans="1:1" ht="14">
       <c r="A2" s="2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="14">
       <c r="A3" s="3" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1280,12 +1328,12 @@
     </row>
     <row r="2" spans="1:1" ht="14">
       <c r="A2" s="2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="14">
       <c r="A3" s="3" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1301,9 +1349,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13"/>
   <cols>
@@ -1313,24 +1363,35 @@
   <sheetData>
     <row r="1" spans="1:3" ht="14">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="14">
       <c r="A2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>10</v>
+        <v>38</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>39</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>12</v>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="14">
+      <c r="A3" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1344,7 +1405,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13"/>
   <cols>
@@ -1360,24 +1423,24 @@
         <v>8</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="14">
       <c r="A2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>14</v>
+        <v>36</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1391,7 +1454,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13"/>
   <cols>
@@ -1407,24 +1472,24 @@
         <v>8</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="14">
       <c r="A2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>14</v>
+        <v>35</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1438,7 +1503,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13"/>
   <cols>
@@ -1454,24 +1521,24 @@
         <v>8</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="14">
       <c r="A2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>18</v>
+        <v>31</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1485,7 +1552,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13"/>
   <cols>
@@ -1503,24 +1572,24 @@
         <v>8</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="14">
       <c r="A2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>18</v>
+        <v>26</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1546,15 +1615,15 @@
         <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="14">
+      <c r="A2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="14">
-      <c r="A2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1580,17 +1649,17 @@
         <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="14">
+      <c r="A2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="14">
-      <c r="A2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.511811023622047" footer="0.511811023622047"/>

--- a/ZhihangLiu2020/evidence.xlsx
+++ b/ZhihangLiu2020/evidence.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/youwei/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D22DCDAC-12C8-AD4B-9409-F1A6F393358D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{443EAAC3-A3EE-A947-A678-BA5C3CF35588}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2780" yWindow="460" windowWidth="24680" windowHeight="10160" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2780" yWindow="460" windowWidth="24680" windowHeight="10160" tabRatio="500" firstSheet="7" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -38,13 +38,14 @@
     <sheet name="B2" sheetId="23" r:id="rId23"/>
     <sheet name="B5" sheetId="24" r:id="rId24"/>
     <sheet name="B6" sheetId="25" r:id="rId25"/>
+    <sheet name="B7" sheetId="26" r:id="rId26"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="50">
   <si>
     <t>TeamName</t>
   </si>
@@ -94,14 +95,8 @@
     <t>tx hash on that chain	chain id</t>
   </si>
   <si>
-    <t>The first Interchain NFT-Transfer TxHash</t>
-  </si>
-  <si>
-    <t>The Internal Transfer TxHash on IRISnet</t>
-  </si>
-  <si>
     <t>13space</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Rajchen1036#3273</t>
@@ -117,95 +112,129 @@
   </si>
   <si>
     <t>OmniFlixAddress</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>omniflix1s62hzktpag3k2s2k2tfa9p4lqvagmuwr6n3qqj</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>uptick1d2xx78x53c9upzu30hp5vhnza53m2alxqmgqu3</t>
   </si>
   <si>
     <t>6849144C93825B2B61CF7B9AF7B86E9DD7FFD96D7BCEF69AE9636966D9699592</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>ibc/4350B5C145B1221F2D2CAFE572EC3F136D9F99C65D3137AD56A110F1C074EA28</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>beauty002</t>
   </si>
   <si>
     <t>beauty002</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>uptick_7000-2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>5B7426CD3CAE0E8B9EA5C6446C6270810129A1E5ECD37A18A78556A0A91D0AF8</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>beauty001</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>stars1n6hx0mcjr5c55qwk9rxhqv4r87hz947w0dlgefhj64kekqf5hfssslm5th</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>elgafar-1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>132DFD90E34A22D82C2847867E022E562056DE031C1899928C21AC361582B1C8</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>FDFE6F08871366BACBA0F490DD8128587175327A8B30FFA891FF2E3887B767E3</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>TxHash</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>8D05C0C1E03514316A627140143B349A998E3DE266E845BFFE217E7C82DC4047</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>zhihangliu2020</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>DE86CDDA30D6844CC14FAA55A76A995D71AC85A4A8BC638FAB9F0F7BD67AC718</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>CC1BA822ACDCC73A4D0D5C0962D10E71DF60D8E1E01A2A4055A7B71849EF33B4</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>95450937911B3104D3F1B0181BF823BAF1A7FCB9812EE269935E8CBE3ABAF54E</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>695532D0D5273F62D74A454DCA48B029D3D57221C5BE97E91FDABE00A6738352</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2075F5FE22757AFE1473A6C0FE4510E964FBE4000BAF3B1BA7E36F1CE3ECB39E</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>057F9BD43BE031BE88403C9F1835A238BBB952858B310CDC374566BF339F204B</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>309CABB55EAA095FB6E57B62F9A6EAAAACFEF081D2E0A69A5DC87A57BF680C78</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5D59FC5875354380B7E167A67D9C0A95A040F8A7EF2FB08976A1110CD090D205</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5CE8E4182DFDD87C26B1AC81628DE714F9CDCB8509AFBB613053402BF5FE734B</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>B9A37B8D37A478366838EF9099D28C23FBE06B1FA9E556C0EBCD4A6ACDD53D63</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2B55F8F58DF71A10B90052FA8864DA48CD82BA45117C000CDC0A682C7A8E5BBE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8E66F3E4F02C056DC6F3797A99D2378BCACC532900765DAF4166AA89F180797F</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -258,13 +287,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -641,8 +669,8 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
-        <v>23</v>
+      <c r="F1" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>5</v>
@@ -652,30 +680,30 @@
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
         <v>18</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" t="s">
         <v>20</v>
       </c>
-      <c r="C2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>24</v>
-      </c>
       <c r="G2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
@@ -701,15 +729,15 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="14">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>11</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
@@ -735,15 +763,15 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="14">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>11</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
@@ -753,7 +781,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13"/>
   <cols>
@@ -769,15 +797,15 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="14">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>11</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
@@ -803,15 +831,15 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="14">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>11</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
@@ -837,25 +865,25 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="14">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="14">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>15</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
@@ -881,25 +909,25 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="14">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="14">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>15</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
@@ -925,25 +953,25 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="14">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="14">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>15</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
@@ -969,25 +997,25 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="14">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="14">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>15</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
@@ -1013,25 +1041,25 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="14">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="14">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>15</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
@@ -1057,25 +1085,25 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="14">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="14">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>15</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
@@ -1085,7 +1113,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
@@ -1103,15 +1131,15 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="14">
-      <c r="A2" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>39</v>
       </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+      <c r="B2" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
@@ -1137,25 +1165,25 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="14">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="14">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>15</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
@@ -1181,25 +1209,25 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="14">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="14">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>15</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
@@ -1209,7 +1237,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13"/>
   <sheetData>
@@ -1220,16 +1250,16 @@
     </row>
     <row r="2" spans="1:1" ht="16.5" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="14">
-      <c r="A3" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+      <c r="A3" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
@@ -1243,8 +1273,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13"/>
@@ -1256,16 +1286,16 @@
     </row>
     <row r="2" spans="1:1" ht="14">
       <c r="A2" s="2" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="14">
-      <c r="A3" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+      <c r="A3" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
@@ -1280,7 +1310,7 @@
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13"/>
@@ -1292,16 +1322,16 @@
     </row>
     <row r="2" spans="1:1" ht="14">
       <c r="A2" s="2" t="s">
-        <v>16</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="14">
-      <c r="A3" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+      <c r="A3" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
@@ -1316,7 +1346,7 @@
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13"/>
@@ -1328,16 +1358,16 @@
     </row>
     <row r="2" spans="1:1" ht="14">
       <c r="A2" s="2" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="14">
-      <c r="A3" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+      <c r="A3" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
@@ -1347,6 +1377,42 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15DEAF15-3A22-984B-85D3-D4295047F05B}">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13"/>
+  <sheetData>
+    <row r="1" spans="1:1" ht="14">
+      <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="14">
+      <c r="A2" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="14">
+      <c r="A3" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C3"/>
@@ -1363,7 +1429,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="14">
       <c r="A1" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>8</v>
@@ -1373,29 +1439,29 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="14">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="14">
+      <c r="A3" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="14">
-      <c r="A3" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+      <c r="B3" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
@@ -1430,21 +1496,21 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="14">
-      <c r="A2" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C2" s="3" t="s">
+      <c r="A2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
@@ -1479,21 +1545,21 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="14">
-      <c r="A2" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B2" s="3" t="s">
+      <c r="A2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+      <c r="D2" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
@@ -1528,21 +1594,21 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="14">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
@@ -1579,21 +1645,21 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="14">
-      <c r="A2" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" s="3" t="s">
+      <c r="A2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+      <c r="D2" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
@@ -1619,15 +1685,15 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="14">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>11</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
@@ -1653,15 +1719,15 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="14">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>11</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>

--- a/ZhihangLiu2020/evidence.xlsx
+++ b/ZhihangLiu2020/evidence.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/youwei/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{443EAAC3-A3EE-A947-A678-BA5C3CF35588}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFBEE7F1-A92F-C146-ACFD-7F5FF601FDDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2780" yWindow="460" windowWidth="24680" windowHeight="10160" tabRatio="500" firstSheet="7" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2780" yWindow="460" windowWidth="24680" windowHeight="10160" tabRatio="500" firstSheet="7" activeTab="19" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="61">
   <si>
     <t>TeamName</t>
   </si>
@@ -222,6 +222,46 @@
   </si>
   <si>
     <t>8E66F3E4F02C056DC6F3797A99D2378BCACC532900765DAF4166AA89F180797F</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ibc/20E8BC52ADBA0BC5DF70645C1D0B99F06B9B6DD681C86EC3C578B9F582F0A680</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>beauty004</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ibc/2DFDE04A57F9C0E738BB0E33DD65C62DE7D629E31C64F31975D864AAF457F4FF</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>beauty005</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>gon-irishub-1</t>
+  </si>
+  <si>
+    <t>elgafar-1</t>
+  </si>
+  <si>
+    <t>uni-6</t>
+  </si>
+  <si>
+    <t>uptick_7000-2</t>
+  </si>
+  <si>
+    <t>860EF65C2EE998752A692D6D4A856F1BAD45275C76ED929FB445AC12D21776EB</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FE64BCBA489CC6E4830E112CFECF0863C0CBD9F76D6FF6019BA91F80F34046EA</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A8628074064986926D13484C3DBCFB24A5BE9C27A75E3EFD6770F10E0D6EA09D</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -287,12 +327,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -781,7 +824,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13"/>
   <cols>
@@ -798,10 +843,10 @@
     </row>
     <row r="2" spans="1:2" ht="14">
       <c r="A2" s="2" t="s">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -815,7 +860,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13"/>
   <cols>
@@ -832,10 +879,10 @@
     </row>
     <row r="2" spans="1:2" ht="14">
       <c r="A2" s="2" t="s">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>11</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -1147,9 +1194,11 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13"/>
   <cols>
@@ -1166,20 +1215,41 @@
     </row>
     <row r="2" spans="1:2" ht="14">
       <c r="A2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>58</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="14">
       <c r="A3" s="2" t="s">
-        <v>15</v>
+        <v>59</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14">
       <c r="A4" s="2" t="s">
-        <v>15</v>
+        <v>60</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="14">
+      <c r="B5" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="14">
+      <c r="B6" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="14">
+      <c r="B7" s="5" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/ZhihangLiu2020/evidence.xlsx
+++ b/ZhihangLiu2020/evidence.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/youwei/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFBEE7F1-A92F-C146-ACFD-7F5FF601FDDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF0D3AB0-8042-EF44-AA13-2F7C433E2629}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2780" yWindow="460" windowWidth="24680" windowHeight="10160" tabRatio="500" firstSheet="7" activeTab="19" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3980" yWindow="460" windowWidth="24680" windowHeight="10160" tabRatio="500" firstSheet="8" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="71">
   <si>
     <t>TeamName</t>
   </si>
@@ -262,6 +262,45 @@
   </si>
   <si>
     <t>A8628074064986926D13484C3DBCFB24A5BE9C27A75E3EFD6770F10E0D6EA09D</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2301B6D3CA98F08D36B9D8A76F87032872AC9D45DF8A4FE5EC266ACE80277D1B</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BB4D299DB10FA4AD9CC1E49D81A0FC9759CA0A9A4D15E5E68CC4DB17C4E7D62C</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0F2CAFAF63981422EC83854FE0FD1493EBF2CC96FAC5E3D8F9FFF06ED4831CB5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>gon-flixnet-1</t>
+  </si>
+  <si>
+    <t>6B8C02B83AA26A500F8624C64283A13E92A3D17D1C3D57F9A3AB0E55315E8FBC</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C1083554FDB1E2CF6B21E9389F310BCD56139F6CCCF0B82ADA139790ACDFD9F8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>37478751EC7DBB70AEFFDE6011FBAF4C7307122B45E495045C06DA9EE7376959</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CA1ECC7C0951461718BE2DD10254CB9A4965C79579C66766DA1191E5FB93A1FE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3C26C8F553106EF7162F133067CFB230D688509EE2DA75E78D2B39FCFEFD6570</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BBF063AFA163396AE2EAB548220C6E0CEC77D24FA98B780DFE62837FFE54DC22</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1196,8 +1235,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13"/>
@@ -1238,16 +1277,25 @@
       </c>
     </row>
     <row r="5" spans="1:2" ht="14">
+      <c r="A5" s="2" t="s">
+        <v>61</v>
+      </c>
       <c r="B5" s="5" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="14">
+      <c r="A6" s="2" t="s">
+        <v>62</v>
+      </c>
       <c r="B6" s="5" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="14">
+      <c r="A7" s="2" t="s">
+        <v>63</v>
+      </c>
       <c r="B7" s="5" t="s">
         <v>55</v>
       </c>
@@ -1261,9 +1309,11 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13"/>
   <cols>
@@ -1280,20 +1330,50 @@
     </row>
     <row r="2" spans="1:2" ht="14">
       <c r="A2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>65</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="14">
       <c r="A3" s="2" t="s">
-        <v>15</v>
+        <v>66</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14">
       <c r="A4" s="2" t="s">
-        <v>15</v>
+        <v>67</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="14">
+      <c r="A5" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="14">
+      <c r="A6" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="14">
+      <c r="A7" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/ZhihangLiu2020/evidence.xlsx
+++ b/ZhihangLiu2020/evidence.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/youwei/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF0D3AB0-8042-EF44-AA13-2F7C433E2629}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F28FAD74-4B3E-8249-9DD1-3ADE190882C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3980" yWindow="460" windowWidth="24680" windowHeight="10160" tabRatio="500" firstSheet="8" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3980" yWindow="460" windowWidth="24680" windowHeight="10160" tabRatio="500" firstSheet="7" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="73">
   <si>
     <t>TeamName</t>
   </si>
@@ -301,6 +301,14 @@
   </si>
   <si>
     <t>BBF063AFA163396AE2EAB548220C6E0CEC77D24FA98B780DFE62837FFE54DC22</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ibc/EA5F1D6953610D5BE66EDBA85DF832365D3F775044C24A52C3193755F9C43BF8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>beauty008</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1311,8 +1319,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13"/>
@@ -1819,7 +1827,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13"/>
   <cols>
@@ -1836,10 +1846,10 @@
     </row>
     <row r="2" spans="1:2" ht="14">
       <c r="A2" s="2" t="s">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>11</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/ZhihangLiu2020/evidence.xlsx
+++ b/ZhihangLiu2020/evidence.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/youwei/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F28FAD74-4B3E-8249-9DD1-3ADE190882C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3951901B-38E9-204E-95B2-FAA6E2EC95D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3980" yWindow="460" windowWidth="24680" windowHeight="10160" tabRatio="500" firstSheet="7" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3980" yWindow="460" windowWidth="24680" windowHeight="10160" tabRatio="500" firstSheet="7" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="77">
   <si>
     <t>TeamName</t>
   </si>
@@ -80,12 +80,6 @@
     <t>ChainID</t>
   </si>
   <si>
-    <t>nft id</t>
-  </si>
-  <si>
-    <t>ibc class on chain</t>
-  </si>
-  <si>
     <t>tx hash on that chain</t>
   </si>
   <si>
@@ -309,6 +303,30 @@
   </si>
   <si>
     <t>beauty008</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ibc/D9E650403F9001E818CF4D0F5FBEEC6C0D97BEFF7327F4A1BFAC1E71B96064F7</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>beauty009</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ibc/6BB97F8830D379D3E19059E6DBDEBD68DF206BB19729529A24EF8F9C9CC7E36D</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>beauty010</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ibc/10849A5A10B0BEFA0EFFE877F06E29A70223E0E996481BF916ADD894B0A3EE86</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>beauty011</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -760,7 +778,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>5</v>
@@ -771,25 +789,25 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
         <v>16</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="C2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>22</v>
-      </c>
       <c r="G2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -803,7 +821,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13"/>
   <cols>
@@ -820,10 +840,10 @@
     </row>
     <row r="2" spans="1:2" ht="14">
       <c r="A2" s="2" t="s">
-        <v>12</v>
+        <v>73</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>11</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -837,7 +857,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13"/>
   <cols>
@@ -854,10 +876,10 @@
     </row>
     <row r="2" spans="1:2" ht="14">
       <c r="A2" s="2" t="s">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>11</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -871,7 +893,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -890,10 +912,10 @@
     </row>
     <row r="2" spans="1:2" ht="14">
       <c r="A2" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -926,10 +948,10 @@
     </row>
     <row r="2" spans="1:2" ht="14">
       <c r="A2" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -960,20 +982,20 @@
     </row>
     <row r="2" spans="1:2" ht="14">
       <c r="A2" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="14">
       <c r="A3" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14">
       <c r="A4" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1004,20 +1026,20 @@
     </row>
     <row r="2" spans="1:2" ht="14">
       <c r="A2" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="14">
       <c r="A3" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14">
       <c r="A4" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1048,20 +1070,20 @@
     </row>
     <row r="2" spans="1:2" ht="14">
       <c r="A2" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="14">
       <c r="A3" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14">
       <c r="A4" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1092,20 +1114,20 @@
     </row>
     <row r="2" spans="1:2" ht="14">
       <c r="A2" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="14">
       <c r="A3" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14">
       <c r="A4" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1136,20 +1158,20 @@
     </row>
     <row r="2" spans="1:2" ht="14">
       <c r="A2" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="14">
       <c r="A3" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14">
       <c r="A4" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1180,20 +1202,20 @@
     </row>
     <row r="2" spans="1:2" ht="14">
       <c r="A2" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="14">
       <c r="A3" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14">
       <c r="A4" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1226,10 +1248,10 @@
     </row>
     <row r="2" spans="1:2" ht="14">
       <c r="A2" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1262,50 +1284,50 @@
     </row>
     <row r="2" spans="1:2" ht="14">
       <c r="A2" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="14">
       <c r="A3" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14">
       <c r="A4" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="14">
       <c r="A5" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="14">
       <c r="A6" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="14">
       <c r="A7" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -1338,50 +1360,50 @@
     </row>
     <row r="2" spans="1:2" ht="14">
       <c r="A2" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="14">
       <c r="A3" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14">
       <c r="A4" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="14">
       <c r="A5" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="14">
       <c r="A6" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="14">
       <c r="A7" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1408,12 +1430,12 @@
     </row>
     <row r="2" spans="1:1" ht="16.5" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="14">
       <c r="A3" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1444,12 +1466,12 @@
     </row>
     <row r="2" spans="1:1" ht="14">
       <c r="A2" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="14">
       <c r="A3" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1480,12 +1502,12 @@
     </row>
     <row r="2" spans="1:1" ht="14">
       <c r="A2" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="14">
       <c r="A3" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1516,12 +1538,12 @@
     </row>
     <row r="2" spans="1:1" ht="14">
       <c r="A2" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="14">
       <c r="A3" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1552,12 +1574,12 @@
     </row>
     <row r="2" spans="1:1" ht="14">
       <c r="A2" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="14">
       <c r="A3" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -1587,7 +1609,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="14">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>8</v>
@@ -1598,24 +1620,24 @@
     </row>
     <row r="2" spans="1:3" ht="14">
       <c r="A2" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="14">
       <c r="A3" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -1655,16 +1677,16 @@
     </row>
     <row r="2" spans="1:4" ht="14">
       <c r="A2" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1704,16 +1726,16 @@
     </row>
     <row r="2" spans="1:4" ht="14">
       <c r="A2" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="D2" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1753,16 +1775,16 @@
     </row>
     <row r="2" spans="1:4" ht="14">
       <c r="A2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="C2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1804,16 +1826,16 @@
     </row>
     <row r="2" spans="1:4" ht="14">
       <c r="A2" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="D2" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1827,7 +1849,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -1846,10 +1868,10 @@
     </row>
     <row r="2" spans="1:2" ht="14">
       <c r="A2" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -1863,7 +1885,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13"/>
   <cols>
@@ -1880,10 +1904,10 @@
     </row>
     <row r="2" spans="1:2" ht="14">
       <c r="A2" s="2" t="s">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>11</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/ZhihangLiu2020/evidence.xlsx
+++ b/ZhihangLiu2020/evidence.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/youwei/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3951901B-38E9-204E-95B2-FAA6E2EC95D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF595631-2B2A-3748-8B4A-00DE6C9FA0F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3980" yWindow="460" windowWidth="24680" windowHeight="10160" tabRatio="500" firstSheet="7" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3980" yWindow="460" windowWidth="24680" windowHeight="10160" tabRatio="500" firstSheet="7" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="98">
   <si>
     <t>TeamName</t>
   </si>
@@ -80,15 +80,6 @@
     <t>ChainID</t>
   </si>
   <si>
-    <t>tx hash on that chain</t>
-  </si>
-  <si>
-    <t>chain id</t>
-  </si>
-  <si>
-    <t>tx hash on that chain	chain id</t>
-  </si>
-  <si>
     <t>13space</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -327,6 +318,102 @@
   </si>
   <si>
     <t>beauty011</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>08F9A873CAB4E2B9DB2A0ED1071AB652E4C6C95F4B76811248573EB6F707B730</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7CBE23E644A8646E9DDCEEC751B2A600A1F9209DFDA6E86BE273F350794877AA</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>88E73BE6AC6759D7998D1DA41B8BA7A6545DA6FBB8AF00E55E0AA914B7785FEB</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>991ECCFA719BAC362FEE29AE8797C7BA2BE305F30F8CFEC5F97702001C795EB2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>9093F6C18E815D2CF6F79429EBAEBDDAB2A7960D14BA3BE7B7778DE076D22234</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>570F5459D90061F5A162262ACD309717830CD8280B6746B1358C8B9056E94832</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4E15DCF34C432FE2C004A32E650E3FFF8B9F051A5AFE9D67DF482A19E377D3B9</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>862C217A5FDA61F72A844D09EF4B6DE3A32BE204EF84AC404E5E0B9A45C6804A</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>177E6C5C0B0F4F9852DE6B848041B27C14B7E973ACB1EF0B0A61F128566E9293</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5717063692EF7CE1400F6B877BE425F6A04FEC82DDD63607C7D8BF2DC471EAFA</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>E6794DFF95CA417B825AE59BE03362BDDE90024A0183AF2FA36BDC6B59EB218F</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>67C794625971EA79FA3F7AFF6845E10E956CBBE9097EA00DB076AFDC6E950698</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>38F3325F9F1621A111C6A889EB13A03DFA706E766F2B3008A08C87165DEE9D7E</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AF114FDD5370D96FF60B6D0841A30F4B5EF009A9C6906F8D7C8E9864EBB84700</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>F400724E0FBD82FD0716516E3BA788F9B7A8D152AD8DC76423E015E632C9DFEC</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>F4265238B7C2862C5C001784468AC47A1839D288E00D7D7883FAC120483B4EB9</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D3594BC2279A324DA5B489FEC54926BE84F29AC7474ED3517BEC50CEB33BD357</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>EE43BE3E05D454A46005D4023A2BBC1A9A8E886F820D08F576E8E8DE9EEBAB86</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8C2D981C3DA5239E769517994523C4A6D379C15A3EE7F74C2F343A7D54E2F1EB</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>028C1C64A165436BD30F51088548725A315507125654315BA5D7294A63534726</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FC74DEEB7806A4141D2A5BF852F5FE048CFCF025E4B8F19788F48A6FBC153FB8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1C35B68B27C1641DB2B6ABB7B2126B5CEB92753292081EE33583AB98031D036E</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1A6D84CDDF519003BEA224BB9FAD605C29F25B780D28586F0CA9311775D1F445</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>E0004A207F03A7343CE0E0D8E4AA61088EE06FCD10C98B30BB9FCD3842A45F82</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -778,7 +865,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>5</v>
@@ -789,25 +876,25 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
         <v>14</v>
       </c>
-      <c r="B2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>20</v>
-      </c>
       <c r="G2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -840,10 +927,10 @@
     </row>
     <row r="2" spans="1:2" ht="14">
       <c r="A2" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -876,10 +963,10 @@
     </row>
     <row r="2" spans="1:2" ht="14">
       <c r="A2" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -893,7 +980,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -912,10 +999,10 @@
     </row>
     <row r="2" spans="1:2" ht="14">
       <c r="A2" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -948,10 +1035,10 @@
     </row>
     <row r="2" spans="1:2" ht="14">
       <c r="A2" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -963,9 +1050,11 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13"/>
   <cols>
@@ -982,20 +1071,34 @@
     </row>
     <row r="2" spans="1:2" ht="14">
       <c r="A2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>12</v>
+        <v>74</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="14">
       <c r="A3" s="2" t="s">
-        <v>13</v>
+        <v>75</v>
+      </c>
+      <c r="B3" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14">
       <c r="A4" s="2" t="s">
-        <v>13</v>
+        <v>76</v>
+      </c>
+      <c r="B4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="14">
+      <c r="A5" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B5" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1007,9 +1110,11 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13"/>
   <cols>
@@ -1026,20 +1131,34 @@
     </row>
     <row r="2" spans="1:2" ht="14">
       <c r="A2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>12</v>
+        <v>81</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="14">
       <c r="A3" s="2" t="s">
-        <v>13</v>
+        <v>80</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14">
       <c r="A4" s="2" t="s">
-        <v>13</v>
+        <v>79</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="14">
+      <c r="A5" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -1051,9 +1170,11 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13"/>
   <cols>
@@ -1070,20 +1191,34 @@
     </row>
     <row r="2" spans="1:2" ht="14">
       <c r="A2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>12</v>
+        <v>82</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="14">
       <c r="A3" s="2" t="s">
-        <v>13</v>
+        <v>83</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14">
       <c r="A4" s="2" t="s">
-        <v>13</v>
+        <v>84</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="14">
+      <c r="A5" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -1095,9 +1230,11 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13"/>
   <cols>
@@ -1114,20 +1251,34 @@
     </row>
     <row r="2" spans="1:2" ht="14">
       <c r="A2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>12</v>
+        <v>86</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="14">
       <c r="A3" s="2" t="s">
-        <v>13</v>
+        <v>87</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14">
       <c r="A4" s="2" t="s">
-        <v>13</v>
+        <v>88</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="14">
+      <c r="A5" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -1139,9 +1290,11 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13"/>
   <cols>
@@ -1158,20 +1311,34 @@
     </row>
     <row r="2" spans="1:2" ht="14">
       <c r="A2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>12</v>
+        <v>92</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="14">
       <c r="A3" s="2" t="s">
-        <v>13</v>
+        <v>91</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14">
       <c r="A4" s="2" t="s">
-        <v>13</v>
+        <v>90</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="14">
+      <c r="A5" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1183,9 +1350,11 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13"/>
   <cols>
@@ -1202,20 +1371,34 @@
     </row>
     <row r="2" spans="1:2" ht="14">
       <c r="A2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>12</v>
+        <v>94</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="14">
       <c r="A3" s="2" t="s">
-        <v>13</v>
+        <v>95</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14">
       <c r="A4" s="2" t="s">
-        <v>13</v>
+        <v>96</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="14">
+      <c r="A5" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1248,10 +1431,10 @@
     </row>
     <row r="2" spans="1:2" ht="14">
       <c r="A2" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1284,50 +1467,50 @@
     </row>
     <row r="2" spans="1:2" ht="14">
       <c r="A2" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="14">
       <c r="A3" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14">
       <c r="A4" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="14">
       <c r="A5" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="14">
       <c r="A6" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="14">
       <c r="A7" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1360,50 +1543,50 @@
     </row>
     <row r="2" spans="1:2" ht="14">
       <c r="A2" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="14">
       <c r="A3" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14">
       <c r="A4" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="14">
       <c r="A5" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="14">
       <c r="A6" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="14">
       <c r="A7" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -1430,12 +1613,12 @@
     </row>
     <row r="2" spans="1:1" ht="16.5" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="14">
       <c r="A3" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1466,12 +1649,12 @@
     </row>
     <row r="2" spans="1:1" ht="14">
       <c r="A2" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="14">
       <c r="A3" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1502,12 +1685,12 @@
     </row>
     <row r="2" spans="1:1" ht="14">
       <c r="A2" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="14">
       <c r="A3" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1538,12 +1721,12 @@
     </row>
     <row r="2" spans="1:1" ht="14">
       <c r="A2" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="14">
       <c r="A3" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1574,12 +1757,12 @@
     </row>
     <row r="2" spans="1:1" ht="14">
       <c r="A2" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="14">
       <c r="A3" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -1609,7 +1792,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="14">
       <c r="A1" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>8</v>
@@ -1620,24 +1803,24 @@
     </row>
     <row r="2" spans="1:3" ht="14">
       <c r="A2" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="14">
       <c r="A3" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -1677,16 +1860,16 @@
     </row>
     <row r="2" spans="1:4" ht="14">
       <c r="A2" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1726,16 +1909,16 @@
     </row>
     <row r="2" spans="1:4" ht="14">
       <c r="A2" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1775,16 +1958,16 @@
     </row>
     <row r="2" spans="1:4" ht="14">
       <c r="A2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1826,16 +2009,16 @@
     </row>
     <row r="2" spans="1:4" ht="14">
       <c r="A2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1868,10 +2051,10 @@
     </row>
     <row r="2" spans="1:2" ht="14">
       <c r="A2" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -1904,10 +2087,10 @@
     </row>
     <row r="2" spans="1:2" ht="14">
       <c r="A2" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
